--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria.Sagayaraj\Desktop\Westpac_Assessment\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5781C55B-2338-4959-922A-4A45EF0CE1F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84CB085-248E-4118-991F-6AEC7D7FCC2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9225" yWindow="2415" windowWidth="28800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Login</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Confirm Password</t>
   </si>
   <si>
-    <t>AutoTest</t>
-  </si>
-  <si>
     <t>Maria</t>
   </si>
   <si>
@@ -62,6 +59,39 @@
   </si>
   <si>
     <t>Null Password</t>
+  </si>
+  <si>
+    <t>Update FirstName</t>
+  </si>
+  <si>
+    <t>Update LastName</t>
+  </si>
+  <si>
+    <t>Maria1</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>9 Adelaide Street</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>Password456$</t>
+  </si>
+  <si>
+    <t>Auto5</t>
   </si>
 </sst>
 </file>
@@ -99,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,11 +152,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,6 +180,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560CE7BE-B73A-40BD-A9EC-02F85437864E}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,9 +538,15 @@
     <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -513,43 +563,79 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="1">
         <v>4586</v>
       </c>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>2108060859</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -559,7 +645,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -569,7 +655,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -580,7 +666,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -591,7 +677,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -602,7 +688,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -613,7 +699,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -624,7 +710,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -635,7 +721,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -646,7 +732,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -657,7 +743,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -668,7 +754,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -679,7 +765,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -690,7 +776,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria.Sagayaraj\Desktop\Westpac_Assessment\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84CB085-248E-4118-991F-6AEC7D7FCC2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1C7B1E-BA85-489F-A9B9-E931DA12FDEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9225" yWindow="2415" windowWidth="28800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,12 +37,6 @@
     <t>Confirm Password</t>
   </si>
   <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>girl</t>
-  </si>
-  <si>
     <t>Password123*</t>
   </si>
   <si>
@@ -91,7 +85,13 @@
     <t>Password456$</t>
   </si>
   <si>
-    <t>Auto5</t>
+    <t>Testing1</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,76 +563,76 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="O1" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1">
         <v>4586</v>
       </c>
       <c r="H2" s="3"/>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L2">
         <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N2">
         <v>2108060859</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria.Sagayaraj\Desktop\Westpac_Assessment\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1C7B1E-BA85-489F-A9B9-E931DA12FDEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063B891A-BD78-4D37-9227-7FAE74269EC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="2415" windowWidth="28800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="7" r:id="rId1"/>
@@ -85,20 +85,20 @@
     <t>Password456$</t>
   </si>
   <si>
-    <t>Testing1</t>
-  </si>
-  <si>
     <t>Mar</t>
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>maria.saronia@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +110,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,10 +172,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,8 +192,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,12 +537,12 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.140625" customWidth="1"/>
@@ -594,14 +607,14 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -953,7 +966,10 @@
       <c r="I31" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{AB9D2B7E-684A-4E26-A846-D2EDDCBE1358}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria.Sagayaraj\Desktop\Westpac_Assessment\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063B891A-BD78-4D37-9227-7FAE74269EC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27171CE-A3CA-4A0D-B38A-9184A53C9696}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="7" r:id="rId1"/>
@@ -91,14 +91,14 @@
     <t>S</t>
   </si>
   <si>
-    <t>maria.saronia@gmail.com</t>
+    <t>msa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +118,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,7 +198,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,7 +543,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,10 +972,7 @@
       <c r="I31" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{AB9D2B7E-684A-4E26-A846-D2EDDCBE1358}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria.Sagayaraj\Desktop\Westpac_Assessment\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27171CE-A3CA-4A0D-B38A-9184A53C9696}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A608320-466C-4C2D-AB04-72229EBE5526}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,13 +85,13 @@
     <t>Password456$</t>
   </si>
   <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>msa</t>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Sre</t>
+  </si>
+  <si>
+    <t>maria06</t>
   </si>
 </sst>
 </file>
@@ -138,12 +138,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,41 +166,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -540,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560CE7BE-B73A-40BD-A9EC-02F85437864E}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,55 +549,55 @@
     <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -628,348 +612,296 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1">
         <v>4586</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="J2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>2108060859</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria.Sagayaraj\Desktop\Westpac_Assessment\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prabha\Desktop\Prabha\Resumes\Applied Projects\Westpac_Assessment-master\Westpac_Assessment-master\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A608320-466C-4C2D-AB04-72229EBE5526}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D414FBC-DA57-423D-87A1-D23675E6B007}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2655" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Login</t>
   </si>
@@ -85,13 +85,25 @@
     <t>Password456$</t>
   </si>
   <si>
-    <t>Mars</t>
-  </si>
-  <si>
-    <t>Sre</t>
-  </si>
-  <si>
-    <t>maria06</t>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>msa</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Hobby</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Drawing</t>
   </si>
 </sst>
 </file>
@@ -138,12 +150,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -166,25 +178,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -524,80 +555,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560CE7BE-B73A-40BD-A9EC-02F85437864E}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
+    <col min="5" max="5" width="26.26953125" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" customWidth="1"/>
+    <col min="9" max="9" width="28.81640625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="11" max="12" width="22.54296875" customWidth="1"/>
+    <col min="13" max="13" width="18.453125" customWidth="1"/>
+    <col min="14" max="14" width="22.453125" customWidth="1"/>
+    <col min="15" max="16" width="23.26953125" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -612,296 +649,354 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1">
         <v>4586</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="1"/>
+      <c r="J2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="8">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="8">
         <v>2108060859</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prabha\Desktop\Prabha\Resumes\Applied Projects\Westpac_Assessment-master\Westpac_Assessment-master\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria.Sagayaraj\Desktop\Westpac_Assessment\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D414FBC-DA57-423D-87A1-D23675E6B007}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A42E7C-8C38-4ED8-AC88-CE148AE92F9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2655" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-3760" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="7" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>msa</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>Drawing</t>
+  </si>
+  <si>
+    <t>masa</t>
   </si>
 </sst>
 </file>
@@ -557,30 +557,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560CE7BE-B73A-40BD-A9EC-02F85437864E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" customWidth="1"/>
-    <col min="5" max="5" width="26.26953125" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" customWidth="1"/>
-    <col min="9" max="9" width="28.81640625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="12" width="22.54296875" customWidth="1"/>
-    <col min="13" max="13" width="18.453125" customWidth="1"/>
-    <col min="14" max="14" width="22.453125" customWidth="1"/>
-    <col min="15" max="16" width="23.26953125" customWidth="1"/>
+    <col min="11" max="12" width="22.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="15" max="16" width="23.28515625" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>15</v>
@@ -627,15 +627,15 @@
         <v>18</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
@@ -663,7 +663,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="8">
         <v>28</v>
@@ -675,13 +675,13 @@
         <v>2108060859</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -691,7 +691,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -701,7 +701,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -712,7 +712,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -723,7 +723,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -734,7 +734,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -745,7 +745,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -756,7 +756,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -767,7 +767,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -778,7 +778,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -789,7 +789,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -800,7 +800,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -811,7 +811,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -822,7 +822,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -833,7 +833,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -844,7 +844,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -855,7 +855,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -866,7 +866,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -877,7 +877,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -888,7 +888,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -899,7 +899,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -910,7 +910,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -921,7 +921,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -932,7 +932,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -943,7 +943,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -954,7 +954,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -965,7 +965,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -976,7 +976,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -987,7 +987,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria.Sagayaraj\Desktop\Westpac_Assessment\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A42E7C-8C38-4ED8-AC88-CE148AE92F9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8B3FE5-A19F-46FD-A39E-27CB2F907082}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-3760" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37880" yWindow="-3130" windowWidth="28800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="7" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <t>Drawing</t>
   </si>
   <si>
-    <t>masa</t>
+    <t>masa5</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria.Sagayaraj\Desktop\Westpac_Assessment\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8B3FE5-A19F-46FD-A39E-27CB2F907082}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C6960B-0537-4108-B5AB-5430F352C80B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37880" yWindow="-3130" windowWidth="28800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,12 +61,6 @@
     <t>Update LastName</t>
   </si>
   <si>
-    <t>Maria1</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -85,12 +79,6 @@
     <t>Password456$</t>
   </si>
   <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -103,7 +91,19 @@
     <t>Drawing</t>
   </si>
   <si>
-    <t>masa5</t>
+    <t>Buggy</t>
+  </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>Buggy1</t>
+  </si>
+  <si>
+    <t>Cars1</t>
+  </si>
+  <si>
+    <t>Buggycars01</t>
   </si>
 </sst>
 </file>
@@ -155,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -178,38 +178,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560CE7BE-B73A-40BD-A9EC-02F85437864E}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,67 +563,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -656,347 +638,284 @@
         <v>4586</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="J2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="8">
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1">
         <v>28</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="8">
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1">
         <v>2108060859</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria.Sagayaraj\Desktop\Westpac_Assessment\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C6960B-0537-4108-B5AB-5430F352C80B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BBE184-E86D-4BFE-BA3B-877E6545FC4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37880" yWindow="-3130" windowWidth="28800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <t>Cars1</t>
   </si>
   <si>
-    <t>Buggycars01</t>
+    <t>BuggyCar10</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria.Sagayaraj\Desktop\Westpac_Assessment\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BBE184-E86D-4BFE-BA3B-877E6545FC4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A000F7-518E-4438-B0F1-1167EA9F67A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37880" yWindow="-3130" windowWidth="28800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-3760" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Registration" sheetId="7" r:id="rId1"/>
+    <sheet name="TestData" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -103,7 +103,7 @@
     <t>Cars1</t>
   </si>
   <si>
-    <t>BuggyCar10</t>
+    <t>BuggyCarsTest1</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria.Sagayaraj\Desktop\Westpac_Assessment\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A000F7-518E-4438-B0F1-1167EA9F67A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B48267-6E93-4E78-AB4F-9DD116BFB228}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-3760" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Login</t>
   </si>
@@ -103,7 +103,13 @@
     <t>Cars1</t>
   </si>
   <si>
-    <t>BuggyCarsTest1</t>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>TestComment</t>
+  </si>
+  <si>
+    <t>AutomatedTest_777</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,12 +189,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -198,6 +201,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -537,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560CE7BE-B73A-40BD-A9EC-02F85437864E}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,64 +567,68 @@
     <col min="14" max="14" width="22.42578125" customWidth="1"/>
     <col min="15" max="16" width="23.28515625" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
@@ -637,7 +648,9 @@
       <c r="G2" s="1">
         <v>4586</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>45</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
         <v>25</v>
@@ -663,259 +676,262 @@
       <c r="Q2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="R2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
